--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.006621854912187245</v>
+        <v>-0.02907897629796788</v>
       </c>
       <c r="C2">
-        <v>0.3205010571955185</v>
+        <v>0.3131278957257717</v>
       </c>
       <c r="D2">
-        <v>0.1952714116195381</v>
+        <v>0.181524606355785</v>
       </c>
       <c r="E2">
-        <v>0.4418952496005565</v>
+        <v>0.4260570458938391</v>
       </c>
       <c r="F2">
-        <v>0.4585248820694837</v>
+        <v>0.43998257208981</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01335479027465388</v>
+        <v>0.0370360702193368</v>
       </c>
       <c r="C3">
-        <v>0.283322723704139</v>
+        <v>0.2877205798324301</v>
       </c>
       <c r="D3">
-        <v>0.1331584193780556</v>
+        <v>0.135345957066826</v>
       </c>
       <c r="E3">
-        <v>0.3649087822703855</v>
+        <v>0.3678939481247633</v>
       </c>
       <c r="F3">
-        <v>0.3795546618969046</v>
+        <v>0.3798420736582994</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.04383512147805761</v>
+        <v>0.01989109342689383</v>
       </c>
       <c r="C4">
-        <v>0.3462089599191152</v>
+        <v>0.3298745939743749</v>
       </c>
       <c r="D4">
-        <v>0.1633694504826379</v>
+        <v>0.1503185731831121</v>
       </c>
       <c r="E4">
-        <v>0.4041898693468676</v>
+        <v>0.3877093926939507</v>
       </c>
       <c r="F4">
-        <v>0.4196725120735867</v>
+        <v>0.4030092977225764</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06494518626325677</v>
+        <v>0.06273519545459039</v>
       </c>
       <c r="C5">
-        <v>0.264906880836754</v>
+        <v>0.2460334154802962</v>
       </c>
       <c r="D5">
-        <v>0.1054123153607701</v>
+        <v>0.09558537405740077</v>
       </c>
       <c r="E5">
-        <v>0.3246726279820492</v>
+        <v>0.3091688439306276</v>
       </c>
       <c r="F5">
-        <v>0.3336373509608915</v>
+        <v>0.3161984462764572</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.04317728764979052</v>
+        <v>0.02711121047383215</v>
       </c>
       <c r="C6">
-        <v>0.3057568504591281</v>
+        <v>0.2779584568479502</v>
       </c>
       <c r="D6">
-        <v>0.1394817077797704</v>
+        <v>0.1216586105046287</v>
       </c>
       <c r="E6">
-        <v>0.3734724993620955</v>
+        <v>0.34879594393374</v>
       </c>
       <c r="F6">
-        <v>0.3910348515456244</v>
+        <v>0.3647135205176791</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02840243141834061</v>
+        <v>-0.01088135635153479</v>
       </c>
       <c r="C7">
-        <v>0.2854486399915991</v>
+        <v>0.2849421119723689</v>
       </c>
       <c r="D7">
-        <v>0.1034503499044959</v>
+        <v>0.09825224066429059</v>
       </c>
       <c r="E7">
-        <v>0.3216369846651593</v>
+        <v>0.3134521345664926</v>
       </c>
       <c r="F7">
-        <v>0.3398148146686297</v>
+        <v>0.3302084135617004</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005590872433043487</v>
+        <v>-0.04428645741563344</v>
       </c>
       <c r="C8">
-        <v>0.3960986492646186</v>
+        <v>0.3765628100937468</v>
       </c>
       <c r="D8">
-        <v>0.1818106741063411</v>
+        <v>0.1690784592812682</v>
       </c>
       <c r="E8">
-        <v>0.4263926290478544</v>
+        <v>0.4111915116843588</v>
       </c>
       <c r="F8">
-        <v>0.4557937080387869</v>
+        <v>0.4335975266214011</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01212723550472292</v>
+        <v>-0.01393931246739222</v>
       </c>
       <c r="C9">
-        <v>0.3920748520760327</v>
+        <v>0.3509192590318558</v>
       </c>
       <c r="D9">
-        <v>0.1863472182894086</v>
+        <v>0.1607817096315818</v>
       </c>
       <c r="E9">
-        <v>0.4316795319324379</v>
+        <v>0.4009759464501354</v>
       </c>
       <c r="F9">
-        <v>0.466083154086434</v>
+        <v>0.4284022211487281</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03499852867081638</v>
+        <v>-0.03688841855209302</v>
       </c>
       <c r="C10">
-        <v>0.3123943041375419</v>
+        <v>0.2799590153621541</v>
       </c>
       <c r="D10">
-        <v>0.1529467924565799</v>
+        <v>0.1329006694222477</v>
       </c>
       <c r="E10">
-        <v>0.391084124526399</v>
+        <v>0.3645554408073589</v>
       </c>
       <c r="F10">
-        <v>0.4266922480394383</v>
+        <v>0.3917438359423185</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.004026667161712632</v>
+        <v>-0.06364682135181432</v>
       </c>
       <c r="C11">
-        <v>0.1200234344675802</v>
+        <v>0.1670219060428917</v>
       </c>
       <c r="D11">
-        <v>0.01808812336475044</v>
+        <v>0.03807752624502202</v>
       </c>
       <c r="E11">
-        <v>0.1344920940603961</v>
+        <v>0.1951346362002964</v>
       </c>
       <c r="F11">
-        <v>0.150299323502799</v>
+        <v>0.2020691219662191</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02907897629796788</v>
+        <v>0.0370360702193368</v>
       </c>
       <c r="C2">
-        <v>0.3131278957257717</v>
+        <v>0.2877205798324301</v>
       </c>
       <c r="D2">
-        <v>0.181524606355785</v>
+        <v>0.135345957066826</v>
       </c>
       <c r="E2">
-        <v>0.4260570458938391</v>
+        <v>0.3678939481247633</v>
       </c>
       <c r="F2">
-        <v>0.43998257208981</v>
+        <v>0.3798420736582994</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0370360702193368</v>
+        <v>0.01989109342689383</v>
       </c>
       <c r="C3">
-        <v>0.2877205798324301</v>
+        <v>0.3298745939743749</v>
       </c>
       <c r="D3">
-        <v>0.135345957066826</v>
+        <v>0.1503185731831121</v>
       </c>
       <c r="E3">
-        <v>0.3678939481247633</v>
+        <v>0.3877093926939507</v>
       </c>
       <c r="F3">
-        <v>0.3798420736582994</v>
+        <v>0.4030092977225764</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.01989109342689383</v>
+        <v>0.06273519545459039</v>
       </c>
       <c r="C4">
-        <v>0.3298745939743749</v>
+        <v>0.2460334154802962</v>
       </c>
       <c r="D4">
-        <v>0.1503185731831121</v>
+        <v>0.09558537405740077</v>
       </c>
       <c r="E4">
-        <v>0.3877093926939507</v>
+        <v>0.3091688439306276</v>
       </c>
       <c r="F4">
-        <v>0.4030092977225764</v>
+        <v>0.3161984462764572</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06273519545459039</v>
+        <v>0.02711121047383215</v>
       </c>
       <c r="C5">
-        <v>0.2460334154802962</v>
+        <v>0.2779584568479502</v>
       </c>
       <c r="D5">
-        <v>0.09558537405740077</v>
+        <v>0.1216586105046287</v>
       </c>
       <c r="E5">
-        <v>0.3091688439306276</v>
+        <v>0.34879594393374</v>
       </c>
       <c r="F5">
-        <v>0.3161984462764572</v>
+        <v>0.3647135205176791</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02711121047383215</v>
+        <v>-0.01088135635153479</v>
       </c>
       <c r="C6">
-        <v>0.2779584568479502</v>
+        <v>0.2849421119723689</v>
       </c>
       <c r="D6">
-        <v>0.1216586105046287</v>
+        <v>0.09825224066429059</v>
       </c>
       <c r="E6">
-        <v>0.34879594393374</v>
+        <v>0.3134521345664926</v>
       </c>
       <c r="F6">
-        <v>0.3647135205176791</v>
+        <v>0.3302084135617004</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01088135635153479</v>
+        <v>-0.04428645741563344</v>
       </c>
       <c r="C7">
-        <v>0.2849421119723689</v>
+        <v>0.3765628100937468</v>
       </c>
       <c r="D7">
-        <v>0.09825224066429059</v>
+        <v>0.1690784592812682</v>
       </c>
       <c r="E7">
-        <v>0.3134521345664926</v>
+        <v>0.4111915116843588</v>
       </c>
       <c r="F7">
-        <v>0.3302084135617004</v>
+        <v>0.4335975266214011</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04428645741563344</v>
+        <v>-0.01393931246739222</v>
       </c>
       <c r="C8">
-        <v>0.3765628100937468</v>
+        <v>0.3509192590318558</v>
       </c>
       <c r="D8">
-        <v>0.1690784592812682</v>
+        <v>0.1607817096315818</v>
       </c>
       <c r="E8">
-        <v>0.4111915116843588</v>
+        <v>0.4009759464501354</v>
       </c>
       <c r="F8">
-        <v>0.4335975266214011</v>
+        <v>0.4284022211487281</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01393931246739222</v>
+        <v>-0.03688841855209302</v>
       </c>
       <c r="C9">
-        <v>0.3509192590318558</v>
+        <v>0.2799590153621541</v>
       </c>
       <c r="D9">
-        <v>0.1607817096315818</v>
+        <v>0.1329006694222477</v>
       </c>
       <c r="E9">
-        <v>0.4009759464501354</v>
+        <v>0.3645554408073589</v>
       </c>
       <c r="F9">
-        <v>0.4284022211487281</v>
+        <v>0.3917438359423185</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.03688841855209302</v>
+        <v>-0.06364682135181432</v>
       </c>
       <c r="C10">
-        <v>0.2799590153621541</v>
+        <v>0.1670219060428917</v>
       </c>
       <c r="D10">
-        <v>0.1329006694222477</v>
+        <v>0.03807752624502202</v>
       </c>
       <c r="E10">
-        <v>0.3645554408073589</v>
+        <v>0.1951346362002964</v>
       </c>
       <c r="F10">
-        <v>0.3917438359423185</v>
+        <v>0.2020691219662191</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06364682135181432</v>
+        <v>-0.06098076515723314</v>
       </c>
       <c r="C11">
-        <v>0.1670219060428917</v>
+        <v>0.3262970042453318</v>
       </c>
       <c r="D11">
-        <v>0.03807752624502202</v>
+        <v>0.145288924028067</v>
       </c>
       <c r="E11">
-        <v>0.1951346362002964</v>
+        <v>0.3811678423320454</v>
       </c>
       <c r="F11">
-        <v>0.2020691219662191</v>
+        <v>0.4206695114768026</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2022/AVERAGE_1_9_matched_error_tables_latest_since_2022.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0370360702193368</v>
+        <v>-0.02907897629796788</v>
       </c>
       <c r="C2">
-        <v>0.2877205798324301</v>
+        <v>0.3131278957257717</v>
       </c>
       <c r="D2">
-        <v>0.135345957066826</v>
+        <v>0.181524606355785</v>
       </c>
       <c r="E2">
-        <v>0.3678939481247633</v>
+        <v>0.4260570458938391</v>
       </c>
       <c r="F2">
-        <v>0.3798420736582994</v>
+        <v>0.43998257208981</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01989109342689383</v>
+        <v>0.0370360702193368</v>
       </c>
       <c r="C3">
-        <v>0.3298745939743749</v>
+        <v>0.2877205798324301</v>
       </c>
       <c r="D3">
-        <v>0.1503185731831121</v>
+        <v>0.135345957066826</v>
       </c>
       <c r="E3">
-        <v>0.3877093926939507</v>
+        <v>0.3678939481247633</v>
       </c>
       <c r="F3">
-        <v>0.4030092977225764</v>
+        <v>0.3798420736582994</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06273519545459039</v>
+        <v>0.01989109342689383</v>
       </c>
       <c r="C4">
-        <v>0.2460334154802962</v>
+        <v>0.3298745939743749</v>
       </c>
       <c r="D4">
-        <v>0.09558537405740077</v>
+        <v>0.1503185731831121</v>
       </c>
       <c r="E4">
-        <v>0.3091688439306276</v>
+        <v>0.3877093926939507</v>
       </c>
       <c r="F4">
-        <v>0.3161984462764572</v>
+        <v>0.4030092977225764</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.02711121047383215</v>
+        <v>0.06273519545459039</v>
       </c>
       <c r="C5">
-        <v>0.2779584568479502</v>
+        <v>0.2460334154802962</v>
       </c>
       <c r="D5">
-        <v>0.1216586105046287</v>
+        <v>0.09558537405740077</v>
       </c>
       <c r="E5">
-        <v>0.34879594393374</v>
+        <v>0.3091688439306276</v>
       </c>
       <c r="F5">
-        <v>0.3647135205176791</v>
+        <v>0.3161984462764572</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01088135635153479</v>
+        <v>0.02711121047383215</v>
       </c>
       <c r="C6">
-        <v>0.2849421119723689</v>
+        <v>0.2779584568479502</v>
       </c>
       <c r="D6">
-        <v>0.09825224066429059</v>
+        <v>0.1216586105046287</v>
       </c>
       <c r="E6">
-        <v>0.3134521345664926</v>
+        <v>0.34879594393374</v>
       </c>
       <c r="F6">
-        <v>0.3302084135617004</v>
+        <v>0.3647135205176791</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04428645741563344</v>
+        <v>-0.01088135635153479</v>
       </c>
       <c r="C7">
-        <v>0.3765628100937468</v>
+        <v>0.2849421119723689</v>
       </c>
       <c r="D7">
-        <v>0.1690784592812682</v>
+        <v>0.09825224066429059</v>
       </c>
       <c r="E7">
-        <v>0.4111915116843588</v>
+        <v>0.3134521345664926</v>
       </c>
       <c r="F7">
-        <v>0.4335975266214011</v>
+        <v>0.3302084135617004</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.01393931246739222</v>
+        <v>-0.04428645741563344</v>
       </c>
       <c r="C8">
-        <v>0.3509192590318558</v>
+        <v>0.3765628100937468</v>
       </c>
       <c r="D8">
-        <v>0.1607817096315818</v>
+        <v>0.1690784592812682</v>
       </c>
       <c r="E8">
-        <v>0.4009759464501354</v>
+        <v>0.4111915116843588</v>
       </c>
       <c r="F8">
-        <v>0.4284022211487281</v>
+        <v>0.4335975266214011</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03688841855209302</v>
+        <v>-0.01393931246739222</v>
       </c>
       <c r="C9">
-        <v>0.2799590153621541</v>
+        <v>0.3509192590318558</v>
       </c>
       <c r="D9">
-        <v>0.1329006694222477</v>
+        <v>0.1607817096315818</v>
       </c>
       <c r="E9">
-        <v>0.3645554408073589</v>
+        <v>0.4009759464501354</v>
       </c>
       <c r="F9">
-        <v>0.3917438359423185</v>
+        <v>0.4284022211487281</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06364682135181432</v>
+        <v>-0.03688841855209302</v>
       </c>
       <c r="C10">
-        <v>0.1670219060428917</v>
+        <v>0.2799590153621541</v>
       </c>
       <c r="D10">
-        <v>0.03807752624502202</v>
+        <v>0.1329006694222477</v>
       </c>
       <c r="E10">
-        <v>0.1951346362002964</v>
+        <v>0.3645554408073589</v>
       </c>
       <c r="F10">
-        <v>0.2020691219662191</v>
+        <v>0.3917438359423185</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06098076515723314</v>
+        <v>-0.06364682135181432</v>
       </c>
       <c r="C11">
-        <v>0.3262970042453318</v>
+        <v>0.1670219060428917</v>
       </c>
       <c r="D11">
-        <v>0.145288924028067</v>
+        <v>0.03807752624502202</v>
       </c>
       <c r="E11">
-        <v>0.3811678423320454</v>
+        <v>0.1951346362002964</v>
       </c>
       <c r="F11">
-        <v>0.4206695114768026</v>
+        <v>0.2020691219662191</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
